--- a/gender_means_data1.xlsx
+++ b/gender_means_data1.xlsx
@@ -401,19 +401,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>58.462</v>
+        <v>58.46</v>
       </c>
       <c r="C2">
-        <v>0.341</v>
+        <v>0.311</v>
       </c>
       <c r="D2">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E2">
-        <v>57.792</v>
+        <v>57.851</v>
       </c>
       <c r="F2">
-        <v>59.131</v>
+        <v>59.069</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -428,19 +428,19 @@
         </is>
       </c>
       <c r="B3">
-        <v>64.902</v>
+        <v>64.71899999999999</v>
       </c>
       <c r="C3">
-        <v>0.344</v>
+        <v>0.307</v>
       </c>
       <c r="D3">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E3">
-        <v>64.22799999999999</v>
+        <v>64.117</v>
       </c>
       <c r="F3">
-        <v>65.57599999999999</v>
+        <v>65.321</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -455,19 +455,19 @@
         </is>
       </c>
       <c r="B4">
-        <v>108.529</v>
+        <v>108.381</v>
       </c>
       <c r="C4">
-        <v>0.602</v>
+        <v>0.546</v>
       </c>
       <c r="D4">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E4">
-        <v>107.349</v>
+        <v>107.311</v>
       </c>
       <c r="F4">
-        <v>109.709</v>
+        <v>109.451</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -482,19 +482,19 @@
         </is>
       </c>
       <c r="B5">
-        <v>112.15</v>
+        <v>112.815</v>
       </c>
       <c r="C5">
-        <v>0.606</v>
+        <v>0.539</v>
       </c>
       <c r="D5">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E5">
-        <v>110.962</v>
+        <v>111.758</v>
       </c>
       <c r="F5">
-        <v>113.337</v>
+        <v>113.873</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -509,19 +509,19 @@
         </is>
       </c>
       <c r="B6">
-        <v>127.168</v>
+        <v>127.123</v>
       </c>
       <c r="C6">
-        <v>0.778</v>
+        <v>0.699</v>
       </c>
       <c r="D6">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E6">
-        <v>125.642</v>
+        <v>125.753</v>
       </c>
       <c r="F6">
-        <v>128.694</v>
+        <v>128.494</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="B7">
-        <v>135.933</v>
+        <v>136.58</v>
       </c>
       <c r="C7">
-        <v>0.783</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="D7">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E7">
-        <v>134.397</v>
+        <v>135.225</v>
       </c>
       <c r="F7">
-        <v>137.469</v>
+        <v>137.935</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -563,19 +563,19 @@
         </is>
       </c>
       <c r="B8">
-        <v>93.934</v>
+        <v>94.19799999999999</v>
       </c>
       <c r="C8">
-        <v>0.835</v>
+        <v>0.76</v>
       </c>
       <c r="D8">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E8">
-        <v>92.29600000000001</v>
+        <v>92.70699999999999</v>
       </c>
       <c r="F8">
-        <v>95.571</v>
+        <v>95.68899999999999</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -590,19 +590,19 @@
         </is>
       </c>
       <c r="B9">
-        <v>105.276</v>
+        <v>106.098</v>
       </c>
       <c r="C9">
-        <v>0.84</v>
+        <v>0.751</v>
       </c>
       <c r="D9">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E9">
-        <v>103.628</v>
+        <v>104.624</v>
       </c>
       <c r="F9">
-        <v>106.924</v>
+        <v>107.571</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -617,19 +617,19 @@
         </is>
       </c>
       <c r="B10">
-        <v>18.209</v>
+        <v>18.134</v>
       </c>
       <c r="C10">
-        <v>0.298</v>
+        <v>0.269</v>
       </c>
       <c r="D10">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E10">
-        <v>17.625</v>
+        <v>17.605</v>
       </c>
       <c r="F10">
-        <v>18.793</v>
+        <v>18.662</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -644,19 +644,19 @@
         </is>
       </c>
       <c r="B11">
-        <v>17.493</v>
+        <v>17.635</v>
       </c>
       <c r="C11">
-        <v>0.3</v>
+        <v>0.266</v>
       </c>
       <c r="D11">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E11">
-        <v>16.905</v>
+        <v>17.112</v>
       </c>
       <c r="F11">
-        <v>18.081</v>
+        <v>18.157</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -671,19 +671,19 @@
         </is>
       </c>
       <c r="B12">
-        <v>18.097</v>
+        <v>18.228</v>
       </c>
       <c r="C12">
-        <v>0.154</v>
+        <v>0.139</v>
       </c>
       <c r="D12">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E12">
-        <v>17.795</v>
+        <v>17.955</v>
       </c>
       <c r="F12">
-        <v>18.399</v>
+        <v>18.501</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -698,19 +698,19 @@
         </is>
       </c>
       <c r="B13">
-        <v>19.263</v>
+        <v>19.285</v>
       </c>
       <c r="C13">
-        <v>0.155</v>
+        <v>0.138</v>
       </c>
       <c r="D13">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E13">
-        <v>18.959</v>
+        <v>19.015</v>
       </c>
       <c r="F13">
-        <v>19.567</v>
+        <v>19.554</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -725,19 +725,19 @@
         </is>
       </c>
       <c r="B14">
-        <v>42.789</v>
+        <v>42.833</v>
       </c>
       <c r="C14">
-        <v>0.249</v>
+        <v>0.227</v>
       </c>
       <c r="D14">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E14">
-        <v>42.3</v>
+        <v>42.388</v>
       </c>
       <c r="F14">
-        <v>43.277</v>
+        <v>43.278</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -752,19 +752,19 @@
         </is>
       </c>
       <c r="B15">
-        <v>46.471</v>
+        <v>46.497</v>
       </c>
       <c r="C15">
-        <v>0.251</v>
+        <v>0.224</v>
       </c>
       <c r="D15">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E15">
-        <v>45.98</v>
+        <v>46.058</v>
       </c>
       <c r="F15">
-        <v>46.962</v>
+        <v>46.937</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="B16">
-        <v>111.509</v>
+        <v>111.82</v>
       </c>
       <c r="C16">
-        <v>0.542</v>
+        <v>0.479</v>
       </c>
       <c r="D16">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E16">
-        <v>110.445</v>
+        <v>110.882</v>
       </c>
       <c r="F16">
-        <v>112.572</v>
+        <v>112.759</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -806,19 +806,19 @@
         </is>
       </c>
       <c r="B17">
-        <v>119.397</v>
+        <v>119.824</v>
       </c>
       <c r="C17">
-        <v>0.546</v>
+        <v>0.473</v>
       </c>
       <c r="D17">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E17">
-        <v>118.327</v>
+        <v>118.896</v>
       </c>
       <c r="F17">
-        <v>120.468</v>
+        <v>120.752</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -833,19 +833,19 @@
         </is>
       </c>
       <c r="B18">
-        <v>71.46599999999999</v>
+        <v>71.706</v>
       </c>
       <c r="C18">
-        <v>0.619</v>
+        <v>0.548</v>
       </c>
       <c r="D18">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E18">
-        <v>70.253</v>
+        <v>70.63200000000001</v>
       </c>
       <c r="F18">
-        <v>72.679</v>
+        <v>72.78100000000001</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -860,19 +860,19 @@
         </is>
       </c>
       <c r="B19">
-        <v>76.59</v>
+        <v>77.246</v>
       </c>
       <c r="C19">
-        <v>0.623</v>
+        <v>0.542</v>
       </c>
       <c r="D19">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E19">
-        <v>75.369</v>
+        <v>76.184</v>
       </c>
       <c r="F19">
-        <v>77.81100000000001</v>
+        <v>78.30800000000001</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -887,19 +887,19 @@
         </is>
       </c>
       <c r="B20">
-        <v>146.822</v>
+        <v>147.151</v>
       </c>
       <c r="C20">
-        <v>0.721</v>
+        <v>0.667</v>
       </c>
       <c r="D20">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E20">
-        <v>145.407</v>
+        <v>145.844</v>
       </c>
       <c r="F20">
-        <v>148.236</v>
+        <v>148.458</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -914,19 +914,19 @@
         </is>
       </c>
       <c r="B21">
-        <v>160.778</v>
+        <v>161.819</v>
       </c>
       <c r="C21">
-        <v>0.726</v>
+        <v>0.659</v>
       </c>
       <c r="D21">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E21">
-        <v>159.354</v>
+        <v>160.527</v>
       </c>
       <c r="F21">
-        <v>162.202</v>
+        <v>163.111</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -941,19 +941,19 @@
         </is>
       </c>
       <c r="B22">
-        <v>276.078</v>
+        <v>276.408</v>
       </c>
       <c r="C22">
-        <v>0.765</v>
+        <v>0.703</v>
       </c>
       <c r="D22">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E22">
-        <v>274.577</v>
+        <v>275.03</v>
       </c>
       <c r="F22">
-        <v>277.578</v>
+        <v>277.786</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -968,19 +968,19 @@
         </is>
       </c>
       <c r="B23">
-        <v>289.823</v>
+        <v>290.796</v>
       </c>
       <c r="C23">
-        <v>0.77</v>
+        <v>0.694</v>
       </c>
       <c r="D23">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E23">
-        <v>288.312</v>
+        <v>289.434</v>
       </c>
       <c r="F23">
-        <v>291.333</v>
+        <v>292.157</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -995,19 +995,19 @@
         </is>
       </c>
       <c r="B24">
-        <v>142.441</v>
+        <v>142.857</v>
       </c>
       <c r="C24">
-        <v>0.379</v>
+        <v>0.347</v>
       </c>
       <c r="D24">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E24">
-        <v>141.698</v>
+        <v>142.177</v>
       </c>
       <c r="F24">
-        <v>143.184</v>
+        <v>143.537</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1022,19 +1022,19 @@
         </is>
       </c>
       <c r="B25">
-        <v>152.058</v>
+        <v>152.42</v>
       </c>
       <c r="C25">
-        <v>0.382</v>
+        <v>0.343</v>
       </c>
       <c r="D25">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E25">
-        <v>151.309</v>
+        <v>151.748</v>
       </c>
       <c r="F25">
-        <v>152.806</v>
+        <v>153.092</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
